--- a/fuentes/contenidos/grado10/guion10/ESCALETA FINAL CN_10_10.xlsx
+++ b/fuentes/contenidos/grado10/guion10/ESCALETA FINAL CN_10_10.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LyzMarcela\Desktop\Edición Planeta\CN_10_10_CO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LyzMarcela\Documents\GitHub\CienciasNaturales\fuentes\contenidos\grado10\guion10\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1066,34 +1066,17 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1135,7 +1118,24 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1443,9 +1443,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J46" sqref="J46"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R51" sqref="R51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1473,94 +1473,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="27" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="K1" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="L1" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="52" t="s">
+      <c r="M1" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="52"/>
-      <c r="O1" s="32" t="s">
+      <c r="N1" s="47"/>
+      <c r="O1" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="32" t="s">
+      <c r="P1" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="34" t="s">
+      <c r="Q1" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="38" t="s">
+      <c r="R1" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="34" t="s">
+      <c r="S1" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="36" t="s">
+      <c r="T1" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="34" t="s">
+      <c r="U1" s="50" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="27" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="47"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="42"/>
       <c r="M2" s="28" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="35"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="51"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1586,7 +1586,7 @@
       <c r="I3" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="55" t="s">
+      <c r="J3" s="32" t="s">
         <v>255</v>
       </c>
       <c r="K3" s="24" t="s">
@@ -3838,7 +3838,7 @@
       </c>
       <c r="O48" s="9"/>
       <c r="P48" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q48" s="10">
         <v>6</v>
@@ -4923,6 +4923,12 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4937,12 +4943,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="O7" r:id="rId1"/>

--- a/fuentes/contenidos/grado10/guion10/ESCALETA FINAL CN_10_10.xlsx
+++ b/fuentes/contenidos/grado10/guion10/ESCALETA FINAL CN_10_10.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LyzMarcela\Documents\GitHub\CienciasNaturales\fuentes\contenidos\grado10\guion10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mpgarcia\Desktop\CienciasNaturales\fuentes\contenidos\grado10\guion10\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1067,16 +1067,34 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1116,24 +1134,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1443,9 +1443,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R51" sqref="R51"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K8" sqref="K8:K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1473,94 +1473,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="27" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="47" t="s">
+      <c r="M1" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="47"/>
-      <c r="O1" s="35" t="s">
+      <c r="N1" s="53"/>
+      <c r="O1" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="35" t="s">
+      <c r="P1" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="50" t="s">
+      <c r="Q1" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="54" t="s">
+      <c r="R1" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="50" t="s">
+      <c r="S1" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="52" t="s">
+      <c r="T1" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="50" t="s">
+      <c r="U1" s="35" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="27" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="42"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="48"/>
       <c r="M2" s="28" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="51"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="36"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -4923,12 +4923,6 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4943,6 +4937,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="O7" r:id="rId1"/>

--- a/fuentes/contenidos/grado10/guion10/ESCALETA FINAL CN_10_10.xlsx
+++ b/fuentes/contenidos/grado10/guion10/ESCALETA FINAL CN_10_10.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mpgarcia\Desktop\CienciasNaturales\fuentes\contenidos\grado10\guion10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LyzMarcela\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,14 +16,14 @@
     <sheet name="DATOS" sheetId="1" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$51</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="268">
   <si>
     <t>Asignatura</t>
   </si>
@@ -483,9 +483,6 @@
   </si>
   <si>
     <t xml:space="preserve">Los metales de transición </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los Boroideos </t>
   </si>
   <si>
     <t xml:space="preserve">Los elementos no metálicos </t>
@@ -821,6 +818,18 @@
   </si>
   <si>
     <t>Actividad para ubicar distintos elementos en la tabla periódica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los boroideos </t>
+  </si>
+  <si>
+    <t>Competencias: reconocimiento de espectros de emisión de metales</t>
+  </si>
+  <si>
+    <t>Actividad que propone una práctica de laboratorio para reconocer metales a través de sus espectros de emisión</t>
+  </si>
+  <si>
+    <t>Recurso M102AB-01</t>
   </si>
 </sst>
 </file>
@@ -1067,34 +1076,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1134,6 +1125,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1441,11 +1450,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U291"/>
+  <dimension ref="A1:U293"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K8" sqref="K8:K46"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U54" sqref="U54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1473,94 +1482,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="27" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="J1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="K1" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="47" t="s">
+      <c r="L1" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="53" t="s">
+      <c r="M1" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="53"/>
-      <c r="O1" s="33" t="s">
+      <c r="N1" s="47"/>
+      <c r="O1" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="P1" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="35" t="s">
+      <c r="Q1" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="39" t="s">
+      <c r="R1" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="35" t="s">
+      <c r="S1" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="37" t="s">
+      <c r="T1" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="35" t="s">
+      <c r="U1" s="50" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="27" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="46"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="48"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="42"/>
       <c r="M2" s="28" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="51"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1578,7 +1587,7 @@
       <c r="E3" s="13"/>
       <c r="F3" s="21"/>
       <c r="G3" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H3" s="21">
         <v>1</v>
@@ -1587,7 +1596,7 @@
         <v>19</v>
       </c>
       <c r="J3" s="32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K3" s="24" t="s">
         <v>20</v>
@@ -1607,16 +1616,16 @@
         <v>6</v>
       </c>
       <c r="R3" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="S3" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="S3" s="10" t="s">
+      <c r="T3" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="U3" s="10" t="s">
         <v>173</v>
-      </c>
-      <c r="U3" s="10" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1736,7 +1745,7 @@
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H7" s="21">
         <v>2</v>
@@ -1745,7 +1754,7 @@
         <v>20</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>20</v>
@@ -1758,7 +1767,7 @@
         <v>34</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P7" s="9" t="s">
         <v>19</v>
@@ -1767,16 +1776,16 @@
         <v>6</v>
       </c>
       <c r="R7" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="S7" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="S7" s="10" t="s">
-        <v>189</v>
-      </c>
       <c r="T7" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="U7" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1797,7 +1806,7 @@
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H8" s="21">
         <v>3</v>
@@ -1806,7 +1815,7 @@
         <v>20</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>19</v>
@@ -1823,19 +1832,19 @@
         <v>19</v>
       </c>
       <c r="Q8" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="R8" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="R8" s="11" t="s">
+      <c r="S8" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="S8" s="10" t="s">
+      <c r="T8" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="U8" s="10" t="s">
         <v>178</v>
-      </c>
-      <c r="T8" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="U8" s="10" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1893,7 +1902,7 @@
         <v>132</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H10" s="21">
         <v>4</v>
@@ -1902,7 +1911,7 @@
         <v>20</v>
       </c>
       <c r="J10" s="30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>19</v>
@@ -1915,23 +1924,23 @@
         <v>28</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P10" s="9"/>
       <c r="Q10" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="R10" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="R10" s="11" t="s">
+      <c r="S10" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="S10" s="10" t="s">
+      <c r="T10" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="U10" s="10" t="s">
         <v>178</v>
-      </c>
-      <c r="T10" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="U10" s="10" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1954,7 +1963,7 @@
         <v>132</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H11" s="21">
         <v>5</v>
@@ -1963,7 +1972,7 @@
         <v>20</v>
       </c>
       <c r="J11" s="30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>20</v>
@@ -1983,16 +1992,16 @@
         <v>6</v>
       </c>
       <c r="R11" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="S11" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="S11" s="10" t="s">
+      <c r="T11" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="T11" s="12" t="s">
+      <c r="U11" s="10" t="s">
         <v>190</v>
-      </c>
-      <c r="U11" s="10" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2015,7 +2024,7 @@
         <v>133</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H12" s="21">
         <v>6</v>
@@ -2024,7 +2033,7 @@
         <v>20</v>
       </c>
       <c r="J12" s="30" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>19</v>
@@ -2041,19 +2050,19 @@
         <v>19</v>
       </c>
       <c r="Q12" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="R12" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="R12" s="11" t="s">
-        <v>177</v>
-      </c>
       <c r="S12" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="T12" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="U12" s="10" t="s">
         <v>184</v>
-      </c>
-      <c r="T12" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="U12" s="10" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2076,7 +2085,7 @@
         <v>134</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H13" s="21">
         <v>7</v>
@@ -2085,7 +2094,7 @@
         <v>20</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>20</v>
@@ -2105,16 +2114,16 @@
         <v>6</v>
       </c>
       <c r="R13" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="S13" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="S13" s="10" t="s">
-        <v>189</v>
-      </c>
       <c r="T13" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="U13" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2135,7 +2144,7 @@
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H14" s="21">
         <v>8</v>
@@ -2144,7 +2153,7 @@
         <v>20</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>20</v>
@@ -2164,19 +2173,19 @@
         <v>6</v>
       </c>
       <c r="R14" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="S14" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="S14" s="10" t="s">
-        <v>189</v>
-      </c>
       <c r="T14" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="U14" s="10" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>17</v>
       </c>
@@ -2189,37 +2198,31 @@
       <c r="D15" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="E15" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>138</v>
-      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="9"/>
       <c r="G15" s="16" t="s">
-        <v>235</v>
+        <v>199</v>
       </c>
       <c r="H15" s="21">
         <v>9</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J15" s="30" t="s">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="O15" s="31" t="s">
-        <v>199</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="N15" s="8"/>
+      <c r="O15" s="9"/>
       <c r="P15" s="9" t="s">
         <v>19</v>
       </c>
@@ -2227,19 +2230,19 @@
         <v>6</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S15" s="10" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="T15" s="12" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="U15" s="10" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>17</v>
       </c>
@@ -2253,24 +2256,54 @@
         <v>136</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="6"/>
+        <v>137</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="H16" s="21">
+        <v>10</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="10"/>
+      <c r="N16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="O16" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q16" s="10">
+        <v>6</v>
+      </c>
+      <c r="R16" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="S16" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="T16" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="U16" s="10" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
@@ -2286,11 +2319,11 @@
         <v>136</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="16"/>
-      <c r="H17" s="21"/>
+      <c r="H17" s="9"/>
       <c r="I17" s="5"/>
       <c r="J17" s="17"/>
       <c r="K17" s="7"/>
@@ -2319,7 +2352,7 @@
         <v>136</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="16"/>
@@ -2352,50 +2385,24 @@
         <v>136</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F19" s="9"/>
-      <c r="G19" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="H19" s="21">
-        <v>10</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>118</v>
-      </c>
+      <c r="G19" s="16"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="9"/>
-      <c r="P19" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q19" s="10">
-        <v>6</v>
-      </c>
-      <c r="R19" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="S19" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="T19" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="U19" s="10" t="s">
-        <v>204</v>
-      </c>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="10"/>
     </row>
     <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
@@ -2411,13 +2418,13 @@
         <v>136</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="16"/>
       <c r="H20" s="21"/>
       <c r="I20" s="5"/>
-      <c r="J20" s="17"/>
+      <c r="J20" s="30"/>
       <c r="K20" s="7"/>
       <c r="L20" s="6"/>
       <c r="M20" s="8"/>
@@ -2444,7 +2451,7 @@
         <v>136</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="16"/>
@@ -2463,7 +2470,7 @@
       <c r="T21" s="12"/>
       <c r="U21" s="10"/>
     </row>
-    <row r="22" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>17</v>
       </c>
@@ -2477,50 +2484,26 @@
         <v>136</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F22" s="9"/>
-      <c r="G22" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="H22" s="21">
-        <v>11</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J22" s="30" t="s">
-        <v>261</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="G22" s="16"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="6"/>
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="9"/>
-      <c r="P22" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q22" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="R22" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="S22" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="T22" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="U22" s="10" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P22" s="9"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="10"/>
+    </row>
+    <row r="23" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>17</v>
       </c>
@@ -2538,45 +2521,43 @@
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="16" t="s">
-        <v>206</v>
+        <v>259</v>
       </c>
       <c r="H23" s="21">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J23" s="30" t="s">
-        <v>207</v>
+        <v>260</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M23" s="8"/>
-      <c r="N23" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="N23" s="8"/>
       <c r="O23" s="9"/>
       <c r="P23" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q23" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="R23" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="R23" s="11" t="s">
+      <c r="S23" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="S23" s="10" t="s">
+      <c r="T23" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="U23" s="10" t="s">
         <v>178</v>
-      </c>
-      <c r="T23" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="U23" s="10" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2597,16 +2578,16 @@
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="16" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H24" s="21">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J24" s="30" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>19</v>
@@ -2616,26 +2597,26 @@
       </c>
       <c r="M24" s="8"/>
       <c r="N24" s="8" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="O24" s="9"/>
       <c r="P24" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q24" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="R24" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="R24" s="11" t="s">
+      <c r="S24" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="S24" s="10" t="s">
+      <c r="T24" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="U24" s="10" t="s">
         <v>178</v>
-      </c>
-      <c r="T24" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="U24" s="10" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2652,49 +2633,49 @@
         <v>136</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="16" t="s">
-        <v>163</v>
+        <v>208</v>
       </c>
       <c r="H25" s="21">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J25" s="30" t="s">
-        <v>166</v>
+        <v>209</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L25" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M25" s="8"/>
       <c r="N25" s="8" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="O25" s="9"/>
       <c r="P25" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q25" s="10">
-        <v>6</v>
+        <v>20</v>
+      </c>
+      <c r="Q25" s="10" t="s">
+        <v>175</v>
       </c>
       <c r="R25" s="11" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="S25" s="10" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="T25" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="U25" s="10" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2708,52 +2689,52 @@
         <v>123</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="16" t="s">
-        <v>214</v>
+        <v>162</v>
       </c>
       <c r="H26" s="21">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J26" s="17" t="s">
-        <v>213</v>
+        <v>20</v>
+      </c>
+      <c r="J26" s="30" t="s">
+        <v>165</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M26" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="N26" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="O26" s="9"/>
       <c r="P26" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="10" t="s">
-        <v>176</v>
+      <c r="Q26" s="10">
+        <v>6</v>
       </c>
       <c r="R26" s="11" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="S26" s="10" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="T26" s="12" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="U26" s="10" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2769,50 +2750,50 @@
       <c r="D27" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="E27" s="29" t="s">
-        <v>148</v>
+      <c r="E27" s="13" t="s">
+        <v>147</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="16" t="s">
-        <v>148</v>
+        <v>213</v>
       </c>
       <c r="H27" s="21">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>19</v>
       </c>
       <c r="J27" s="17" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M27" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>118</v>
+      </c>
       <c r="N27" s="8"/>
-      <c r="O27" s="9" t="s">
-        <v>216</v>
-      </c>
+      <c r="O27" s="9"/>
       <c r="P27" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q27" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="R27" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="R27" s="11" t="s">
-        <v>177</v>
-      </c>
       <c r="S27" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="T27" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="U27" s="10" t="s">
         <v>184</v>
-      </c>
-      <c r="T27" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="U27" s="10" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2833,16 +2814,16 @@
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="16" t="s">
-        <v>218</v>
+        <v>148</v>
       </c>
       <c r="H28" s="21">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>19</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>19</v>
@@ -2852,24 +2833,26 @@
       </c>
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
-      <c r="O28" s="9"/>
+      <c r="O28" s="9" t="s">
+        <v>215</v>
+      </c>
       <c r="P28" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q28" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="R28" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="R28" s="11" t="s">
-        <v>177</v>
-      </c>
       <c r="S28" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="T28" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="U28" s="10" t="s">
         <v>184</v>
-      </c>
-      <c r="T28" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="U28" s="10" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2885,27 +2868,49 @@
       <c r="D29" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="E29" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="G29" s="16"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="6"/>
+      <c r="E29" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="H29" s="21">
+        <v>17</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="12"/>
-      <c r="U29" s="10"/>
+      <c r="P29" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q29" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="R29" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="S29" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="T29" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="U29" s="10" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
@@ -2924,7 +2929,7 @@
         <v>149</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G30" s="16"/>
       <c r="H30" s="9"/>
@@ -2959,7 +2964,7 @@
         <v>149</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G31" s="16"/>
       <c r="H31" s="9"/>
@@ -2994,49 +2999,23 @@
         <v>149</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="G32" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="H32" s="21">
-        <v>18</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J32" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L32" s="6" t="s">
-        <v>8</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G32" s="16"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="6"/>
       <c r="M32" s="8"/>
-      <c r="N32" s="8" t="s">
-        <v>23</v>
-      </c>
+      <c r="N32" s="8"/>
       <c r="O32" s="9"/>
-      <c r="P32" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q32" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="R32" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="S32" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="T32" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="U32" s="10" t="s">
-        <v>185</v>
-      </c>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="10"/>
     </row>
     <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
@@ -3052,51 +3031,51 @@
         <v>146</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="F33" s="9"/>
+        <v>149</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>264</v>
+      </c>
       <c r="G33" s="16" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H33" s="21">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J33" s="17" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L33" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M33" s="8"/>
       <c r="N33" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="O33" s="9" t="s">
-        <v>222</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="O33" s="9"/>
       <c r="P33" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Q33" s="10">
-        <v>6</v>
+      <c r="Q33" s="10" t="s">
+        <v>175</v>
       </c>
       <c r="R33" s="11" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="S33" s="10" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="T33" s="12" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="U33" s="10" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3113,49 +3092,51 @@
         <v>146</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="16" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H34" s="21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I34" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J34" s="17" t="s">
-        <v>225</v>
+        <v>262</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L34" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M34" s="8"/>
       <c r="N34" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="O34" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="O34" s="9" t="s">
+        <v>221</v>
+      </c>
       <c r="P34" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Q34" s="10" t="s">
-        <v>176</v>
+      <c r="Q34" s="10">
+        <v>6</v>
       </c>
       <c r="R34" s="11" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="S34" s="10" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="T34" s="12" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="U34" s="10" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3172,20 +3153,20 @@
         <v>146</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="16" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H35" s="21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J35" s="17" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>19</v>
@@ -3202,19 +3183,19 @@
         <v>19</v>
       </c>
       <c r="Q35" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="R35" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="R35" s="11" t="s">
-        <v>177</v>
-      </c>
       <c r="S35" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="T35" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="U35" s="10" t="s">
         <v>184</v>
-      </c>
-      <c r="T35" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="U35" s="10" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3231,20 +3212,20 @@
         <v>146</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="16" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H36" s="21">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I36" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J36" s="17" t="s">
-        <v>264</v>
+        <v>227</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>19</v>
@@ -3254,26 +3235,26 @@
       </c>
       <c r="M36" s="8"/>
       <c r="N36" s="8" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="O36" s="9"/>
       <c r="P36" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q36" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="R36" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="R36" s="11" t="s">
-        <v>177</v>
-      </c>
       <c r="S36" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="T36" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="U36" s="10" t="s">
         <v>184</v>
-      </c>
-      <c r="T36" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="U36" s="10" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3290,49 +3271,49 @@
         <v>146</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="F37" s="9"/>
       <c r="G37" s="16" t="s">
-        <v>164</v>
+        <v>229</v>
       </c>
       <c r="H37" s="21">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J37" s="17" t="s">
-        <v>167</v>
+        <v>263</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L37" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M37" s="8"/>
       <c r="N37" s="8" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="O37" s="9"/>
       <c r="P37" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q37" s="10">
-        <v>6</v>
+        <v>20</v>
+      </c>
+      <c r="Q37" s="10" t="s">
+        <v>175</v>
       </c>
       <c r="R37" s="11" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="S37" s="10" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="T37" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="U37" s="10" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3346,27 +3327,53 @@
         <v>123</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="F38" s="9"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="6"/>
+      <c r="G38" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="H38" s="21">
+        <v>23</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
+      <c r="N38" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="11"/>
-      <c r="S38" s="10"/>
-      <c r="T38" s="12"/>
-      <c r="U38" s="10"/>
+      <c r="P38" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q38" s="10">
+        <v>6</v>
+      </c>
+      <c r="R38" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="S38" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="T38" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="U38" s="10" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
@@ -3379,27 +3386,51 @@
         <v>123</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>158</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="E39" s="13"/>
       <c r="F39" s="9"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="8"/>
+      <c r="G39" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="H39" s="21">
+        <v>24</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J39" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="N39" s="8"/>
       <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="11"/>
-      <c r="S39" s="10"/>
-      <c r="T39" s="12"/>
-      <c r="U39" s="10"/>
+      <c r="P39" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q39" s="10">
+        <v>6</v>
+      </c>
+      <c r="R39" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="S39" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="T39" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="U39" s="10" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
@@ -3412,10 +3443,10 @@
         <v>123</v>
       </c>
       <c r="D40" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="E40" s="13" t="s">
         <v>156</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>159</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="16"/>
@@ -3445,10 +3476,10 @@
         <v>123</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="16"/>
@@ -3478,53 +3509,27 @@
         <v>123</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="E42" s="29" t="s">
-        <v>161</v>
+        <v>155</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>158</v>
       </c>
       <c r="F42" s="9"/>
-      <c r="G42" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="H42" s="21">
-        <v>24</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J42" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L42" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M42" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="G42" s="16"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="8"/>
       <c r="N42" s="8"/>
       <c r="O42" s="9"/>
-      <c r="P42" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q42" s="10">
-        <v>6</v>
-      </c>
-      <c r="R42" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="S42" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="T42" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="U42" s="10" t="s">
-        <v>174</v>
-      </c>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="10"/>
     </row>
     <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
@@ -3537,53 +3542,27 @@
         <v>123</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="F43" s="9"/>
-      <c r="G43" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="H43" s="21">
-        <v>25</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J43" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L43" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="G43" s="16"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="6"/>
       <c r="M43" s="8"/>
-      <c r="N43" s="8" t="s">
-        <v>52</v>
-      </c>
+      <c r="N43" s="8"/>
       <c r="O43" s="9"/>
-      <c r="P43" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q43" s="10">
-        <v>6</v>
-      </c>
-      <c r="R43" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="S43" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="T43" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="U43" s="10" t="s">
-        <v>191</v>
-      </c>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="10"/>
     </row>
     <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
@@ -3596,21 +3575,23 @@
         <v>123</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="E44" s="13"/>
+        <v>155</v>
+      </c>
+      <c r="E44" s="29" t="s">
+        <v>160</v>
+      </c>
       <c r="F44" s="9"/>
       <c r="G44" s="16" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H44" s="21">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I44" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J44" s="30" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>19</v>
@@ -3619,30 +3600,28 @@
         <v>8</v>
       </c>
       <c r="M44" s="8"/>
-      <c r="N44" s="8" t="s">
-        <v>121</v>
-      </c>
+      <c r="N44" s="8"/>
       <c r="O44" s="9"/>
       <c r="P44" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q44" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="R44" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="R44" s="11" t="s">
-        <v>177</v>
-      </c>
       <c r="S44" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="T44" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="U44" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="T44" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="U44" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
         <v>17</v>
       </c>
@@ -3653,21 +3632,23 @@
         <v>123</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="E45" s="13"/>
+        <v>155</v>
+      </c>
+      <c r="E45" s="29" t="s">
+        <v>160</v>
+      </c>
       <c r="F45" s="9"/>
       <c r="G45" s="16" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H45" s="21">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J45" s="30" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>19</v>
@@ -3676,28 +3657,30 @@
         <v>8</v>
       </c>
       <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
+      <c r="N45" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="O45" s="9"/>
       <c r="P45" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q45" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="R45" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="R45" s="11" t="s">
-        <v>177</v>
-      </c>
       <c r="S45" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T45" s="12" t="s">
         <v>244</v>
       </c>
       <c r="U45" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
         <v>17</v>
       </c>
@@ -3708,50 +3691,52 @@
         <v>123</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="E46" s="13"/>
+        <v>155</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>135</v>
+      </c>
       <c r="F46" s="9"/>
       <c r="G46" s="16" t="s">
-        <v>245</v>
+        <v>167</v>
       </c>
       <c r="H46" s="21">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I46" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J46" s="30" t="s">
-        <v>246</v>
+      <c r="J46" s="17" t="s">
+        <v>168</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L46" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M46" s="8"/>
       <c r="N46" s="8" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="O46" s="9"/>
       <c r="P46" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Q46" s="10" t="s">
-        <v>176</v>
+      <c r="Q46" s="10">
+        <v>6</v>
       </c>
       <c r="R46" s="11" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="S46" s="10" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="T46" s="12" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="U46" s="10" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3765,41 +3750,53 @@
         <v>123</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="E47" s="13"/>
       <c r="F47" s="9"/>
       <c r="G47" s="16" t="s">
-        <v>10</v>
+        <v>239</v>
       </c>
       <c r="H47" s="21">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I47" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J47" s="17" t="s">
-        <v>250</v>
+      <c r="J47" s="30" t="s">
+        <v>240</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
+      <c r="N47" s="8" t="s">
+        <v>121</v>
+      </c>
       <c r="O47" s="9"/>
       <c r="P47" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Q47" s="10"/>
-      <c r="R47" s="11"/>
-      <c r="S47" s="10"/>
-      <c r="T47" s="12"/>
-      <c r="U47" s="10"/>
-    </row>
-    <row r="48" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q47" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="R47" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="S47" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="T47" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="U47" s="10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
         <v>17</v>
       </c>
@@ -3810,21 +3807,21 @@
         <v>123</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="E48" s="13"/>
       <c r="F48" s="9"/>
       <c r="G48" s="16" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="H48" s="21">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I48" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J48" s="17" t="s">
-        <v>251</v>
+      <c r="J48" s="30" t="s">
+        <v>266</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>20</v>
@@ -3834,7 +3831,7 @@
       </c>
       <c r="M48" s="8"/>
       <c r="N48" s="8" t="s">
-        <v>32</v>
+        <v>121</v>
       </c>
       <c r="O48" s="9"/>
       <c r="P48" s="9" t="s">
@@ -3844,16 +3841,16 @@
         <v>6</v>
       </c>
       <c r="R48" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="S48" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="S48" s="10" t="s">
-        <v>189</v>
-      </c>
       <c r="T48" s="12" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="U48" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="49" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3867,97 +3864,153 @@
         <v>123</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E49" s="13"/>
       <c r="F49" s="9"/>
       <c r="G49" s="16" t="s">
-        <v>249</v>
+        <v>10</v>
       </c>
       <c r="H49" s="21">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I49" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J49" s="17" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L49" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M49" s="8"/>
-      <c r="N49" s="8" t="s">
-        <v>53</v>
-      </c>
+      <c r="N49" s="8"/>
       <c r="O49" s="9"/>
       <c r="P49" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q49" s="10">
-        <v>6</v>
-      </c>
-      <c r="R49" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="S49" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="T49" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="U49" s="10" t="s">
-        <v>191</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="10"/>
+      <c r="T49" s="12"/>
+      <c r="U49" s="10"/>
     </row>
     <row r="50" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="15"/>
+      <c r="A50" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>246</v>
+      </c>
       <c r="E50" s="13"/>
       <c r="F50" s="9"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="6"/>
+      <c r="G50" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="H50" s="21">
+        <v>31</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J50" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L50" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
+      <c r="N50" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="O50" s="9"/>
-      <c r="P50" s="9"/>
-      <c r="Q50" s="10"/>
-      <c r="R50" s="11"/>
-      <c r="S50" s="10"/>
-      <c r="T50" s="12"/>
-      <c r="U50" s="10"/>
+      <c r="P50" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q50" s="10">
+        <v>6</v>
+      </c>
+      <c r="R50" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="S50" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="T50" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="U50" s="10" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="51" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="15"/>
+      <c r="A51" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>246</v>
+      </c>
       <c r="E51" s="13"/>
       <c r="F51" s="9"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="6"/>
+      <c r="G51" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="H51" s="21">
+        <v>32</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J51" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L51" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
+      <c r="N51" s="8" t="s">
+        <v>53</v>
+      </c>
       <c r="O51" s="9"/>
-      <c r="P51" s="9"/>
-      <c r="Q51" s="10"/>
-      <c r="R51" s="11"/>
-      <c r="S51" s="10"/>
-      <c r="T51" s="12"/>
-      <c r="U51" s="10"/>
+      <c r="P51" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q51" s="10">
+        <v>6</v>
+      </c>
+      <c r="R51" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="S51" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="T51" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="U51" s="10" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="52" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
@@ -4557,8 +4610,52 @@
       <c r="T77" s="12"/>
       <c r="U77" s="10"/>
     </row>
-    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="4"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="17"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="8"/>
+      <c r="N78" s="8"/>
+      <c r="O78" s="9"/>
+      <c r="P78" s="9"/>
+      <c r="Q78" s="10"/>
+      <c r="R78" s="11"/>
+      <c r="S78" s="10"/>
+      <c r="T78" s="12"/>
+      <c r="U78" s="10"/>
+    </row>
+    <row r="79" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="4"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="17"/>
+      <c r="K79" s="7"/>
+      <c r="L79" s="6"/>
+      <c r="M79" s="8"/>
+      <c r="N79" s="8"/>
+      <c r="O79" s="9"/>
+      <c r="P79" s="9"/>
+      <c r="Q79" s="10"/>
+      <c r="R79" s="11"/>
+      <c r="S79" s="10"/>
+      <c r="T79" s="12"/>
+      <c r="U79" s="10"/>
+    </row>
     <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
@@ -4570,207 +4667,207 @@
     <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>94</v>
-      </c>
-    </row>
+    <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
     </row>
     <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="129" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="130" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="131" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="132" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="133" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="134" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="135" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="136" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="137" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="138" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="139" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="140" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="141" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="142" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="143" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="144" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="131" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="132" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="133" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="134" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="135" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="136" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="137" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="138" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="139" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="140" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="141" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="142" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="143" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="144" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="145" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="146" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="147" hidden="1" x14ac:dyDescent="0.25"/>
@@ -4918,11 +5015,19 @@
     <row r="289" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="290" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="291" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="292" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="293" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:U49">
+  <autoFilter ref="A1:U51">
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4937,16 +5042,10 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="O7" r:id="rId1"/>
-    <hyperlink ref="O15" r:id="rId2"/>
+    <hyperlink ref="O16" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
